--- a/bin/addons/procurement_cycle/report/replenishment_inventory_review.xlsx
+++ b/bin/addons/procurement_cycle/report/replenishment_inventory_review.xlsx
@@ -33,9 +33,6 @@
     <t>Scheduled reviews periodicity</t>
   </si>
   <si>
-    <t>Every 1 day(s)</t>
-  </si>
-  <si>
     <t>Generated</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>red cell style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every 1 week(s) on monday  </t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -796,17 +796,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -866,16 +855,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -943,26 +929,17 @@
     <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1325,7 +1302,7 @@
       <pane xSplit="3" ySplit="15" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1351,10 +1328,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="28"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1424,18 +1401,18 @@
       <c r="AP2" s="1"/>
     </row>
     <row r="3" spans="1:45" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="H3" s="19"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1466,19 +1443,19 @@
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
     </row>
-    <row r="4" spans="1:45" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:45" ht="29.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
+      <c r="B4" s="30"/>
+      <c r="C4" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="22">
+        <v>65</v>
+      </c>
+      <c r="H4" s="21">
         <v>0.12</v>
       </c>
       <c r="I4" s="1"/>
@@ -1512,18 +1489,18 @@
       <c r="AP4" s="1"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="4">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="3">
         <v>44331.423958333333</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="21">
+        <v>66</v>
+      </c>
+      <c r="H5" s="20">
         <v>1.123</v>
       </c>
       <c r="I5" s="1"/>
@@ -1557,19 +1534,19 @@
       <c r="AP5" s="1"/>
     </row>
     <row r="6" spans="1:45" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="5">
+      <c r="A6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="4">
         <v>44197</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1602,18 +1579,18 @@
       <c r="AP6" s="1"/>
     </row>
     <row r="7" spans="1:45" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="5">
+      <c r="A7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="4">
         <v>44316</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="34">
+        <v>69</v>
+      </c>
+      <c r="H7" s="27">
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
@@ -1647,14 +1624,14 @@
       <c r="AP7" s="1"/>
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="29"/>
+      <c r="A8" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30"/>
       <c r="C8" s="2">
         <v>8</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1689,11 +1666,11 @@
       <c r="AP8" s="1"/>
     </row>
     <row r="9" spans="1:45" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="5">
+      <c r="A9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="4">
         <v>44561</v>
       </c>
       <c r="F9" s="1"/>
@@ -1730,10 +1707,10 @@
       <c r="AP9" s="1"/>
     </row>
     <row r="10" spans="1:45" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="29"/>
+      <c r="A10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30"/>
       <c r="C10" s="2">
         <v>12</v>
       </c>
@@ -1771,12 +1748,12 @@
       <c r="AP10" s="1"/>
     </row>
     <row r="11" spans="1:45" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1846,8 +1823,8 @@
       <c r="AP12" s="1"/>
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1885,285 +1862,285 @@
       <c r="AS13" s="1"/>
     </row>
     <row r="14" spans="1:45" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
     </row>
     <row r="15" spans="1:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="H15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="K15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="L15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="M15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="N15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="P15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="Q15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="R15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="14" t="s">
+      <c r="S15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="T15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="U15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="14" t="s">
+      <c r="V15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="14" t="s">
+      <c r="W15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="W15" s="14" t="s">
+      <c r="X15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="X15" s="14" t="s">
+      <c r="Y15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Y15" s="14" t="s">
+      <c r="Z15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Z15" s="26" t="s">
+      <c r="AA15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AA15" s="26" t="s">
+      <c r="AB15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AB15" s="26" t="s">
+      <c r="AC15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AC15" s="27" t="s">
+      <c r="AD15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AD15" s="26" t="s">
+      <c r="AE15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AE15" s="27" t="s">
+      <c r="AF15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AF15" s="26" t="s">
+      <c r="AG15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AG15" s="26" t="s">
+      <c r="AH15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AH15" s="26" t="s">
+      <c r="AI15" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AI15" s="26" t="s">
+      <c r="AJ15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AJ15" s="26" t="s">
+      <c r="AK15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AK15" s="26" t="s">
+      <c r="AL15" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AL15" s="26" t="s">
+      <c r="AM15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AM15" s="15" t="s">
+      <c r="AN15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AN15" s="15" t="s">
+      <c r="AO15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AO15" s="15" t="s">
+      <c r="AP15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AP15" s="15" t="s">
+      <c r="AQ15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AQ15" s="15" t="s">
+      <c r="AR15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AR15" s="16" t="s">
+      <c r="AS15" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="AS15" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="H16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="18" t="s">
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>50</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="18">
+        <v>17</v>
+      </c>
+      <c r="N16" s="18">
+        <v>131</v>
+      </c>
+      <c r="O16" s="18">
+        <v>148</v>
+      </c>
+      <c r="P16" s="18">
+        <v>121.76</v>
+      </c>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="19">
-        <v>0</v>
-      </c>
-      <c r="K16" s="19">
-        <v>50</v>
-      </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="19">
-        <v>17</v>
-      </c>
-      <c r="N16" s="19">
-        <v>131</v>
-      </c>
-      <c r="O16" s="19">
-        <v>148</v>
-      </c>
-      <c r="P16" s="19">
-        <v>121.76</v>
-      </c>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="T16" s="18"/>
-      <c r="U16" s="21">
+      <c r="T16" s="17"/>
+      <c r="U16" s="20">
         <v>18</v>
       </c>
-      <c r="V16" s="21">
+      <c r="V16" s="20">
         <v>30.310889132500002</v>
       </c>
-      <c r="W16" s="22">
+      <c r="W16" s="21">
         <v>1.7320508075700001</v>
       </c>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="18">
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="17">
         <v>1650</v>
       </c>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="24">
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="23">
         <v>44327</v>
       </c>
-      <c r="AP16" s="24">
+      <c r="AP16" s="23">
         <v>44344</v>
       </c>
-      <c r="AQ16" s="24">
+      <c r="AQ16" s="23">
         <v>44475</v>
       </c>
-      <c r="AR16" s="18"/>
-      <c r="AS16" s="18"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
